--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Rounds.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Rounds.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87274C17-1E7B-4209-9115-2EC090866C6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9F9321-B332-4B89-B48F-4C3566451DBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>เลขที่   (null)</t>
   </si>
@@ -59,16 +59,37 @@
     <t xml:space="preserve">Group = Time   /  Currency  </t>
   </si>
   <si>
-    <t xml:space="preserve">Currency  </t>
-  </si>
-  <si>
-    <t>ไทย</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>04</t>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>มาตรฐาน</t>
+  </si>
+  <si>
+    <t>Standart</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>ปัดเศษเวลาสาย</t>
+  </si>
+  <si>
+    <t>Round Late</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>ปัดเศษเวลาโอที</t>
+  </si>
+  <si>
+    <t>Round OT</t>
   </si>
 </sst>
 </file>
@@ -151,7 +172,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,7 +180,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,7 +536,7 @@
     <col min="16" max="16" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -531,20 +551,6 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +564,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,24 +577,24 @@
     <col min="6" max="8" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -605,8 +611,50 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Rounds.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Rounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9F9321-B332-4B89-B48F-4C3566451DBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03EB28B-66E1-4872-BECA-2C64373BA74C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>เลขที่   (null)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t xml:space="preserve">ชื่อ ภาษาไทย ความยาว 100 ตัว </t>
   </si>
@@ -37,66 +34,93 @@
     <t xml:space="preserve">ชื่อ ภาษาอังกฤษ ความยาว 100 ตัว </t>
   </si>
   <si>
-    <t>รหัส rounds
+    <t>round_group</t>
+  </si>
+  <si>
+    <t>round_name_en</t>
+  </si>
+  <si>
+    <t>round_name_th</t>
+  </si>
+  <si>
+    <t>round_code</t>
+  </si>
+  <si>
+    <t>round_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group = Time   /  Currency  </t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>มาตรฐาน</t>
+  </si>
+  <si>
+    <t>Standart</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>ปัดเศษเวลาสาย</t>
+  </si>
+  <si>
+    <t>Round Late</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>ปัดเศษเวลาโอที</t>
+  </si>
+  <si>
+    <t>Round OT</t>
+  </si>
+  <si>
+    <t>ค่า From ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>ค่า To  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>ค่า Result  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>round_from</t>
+  </si>
+  <si>
+    <t>round_to</t>
+  </si>
+  <si>
+    <t>round_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เลขที่  ตัวเลขเท่านั้น   </t>
+  </si>
+  <si>
+    <t>รหัส Round
 ความยาวไม่เกิน 5 ตัว</t>
   </si>
   <si>
-    <t>round_group</t>
-  </si>
-  <si>
-    <t>round_name_en</t>
-  </si>
-  <si>
-    <t>round_name_th</t>
-  </si>
-  <si>
-    <t>round_code</t>
-  </si>
-  <si>
-    <t>round_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group = Time   /  Currency  </t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>มาตรฐาน</t>
-  </si>
-  <si>
-    <t>Standart</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>ปัดเศษเวลาสาย</t>
-  </si>
-  <si>
-    <t>Round Late</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>OT</t>
-  </si>
-  <si>
-    <t>ปัดเศษเวลาโอที</t>
-  </si>
-  <si>
-    <t>Round OT</t>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,12 +141,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -174,9 +192,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -186,8 +201,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -510,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,21 +554,30 @@
     <col min="16" max="16" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -561,10 +588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F017C7-5CE9-48D2-A0C7-F2879FBF34E6}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,88 +602,156 @@
     <col min="4" max="4" width="26.81640625" customWidth="1"/>
     <col min="5" max="5" width="37.54296875" customWidth="1"/>
     <col min="6" max="8" width="15.08984375" customWidth="1"/>
+    <col min="10" max="11" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E6" s="5"/>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{2830B3EC-700A-4313-9053-0E5987CC926D}">
+      <formula1>"Time,Currency"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Rounds.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Rounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03EB28B-66E1-4872-BECA-2C64373BA74C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590CFC20-D6C9-4B1C-BF45-0904772EB4F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t xml:space="preserve">ชื่อ ภาษาไทย ความยาว 100 ตัว </t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>company_code</t>
   </si>
 </sst>
 </file>
@@ -201,11 +207,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -528,55 +534,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" customWidth="1"/>
-    <col min="6" max="6" width="25.26953125" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" customWidth="1"/>
-    <col min="9" max="9" width="17.08984375" customWidth="1"/>
-    <col min="10" max="10" width="18.90625" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" customWidth="1"/>
-    <col min="13" max="13" width="20.81640625" customWidth="1"/>
-    <col min="14" max="14" width="20.08984375" customWidth="1"/>
-    <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="16" width="20.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="20.81640625" customWidth="1"/>
+    <col min="10" max="10" width="17.08984375" customWidth="1"/>
+    <col min="11" max="11" width="18.90625" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" customWidth="1"/>
+    <col min="14" max="14" width="20.81640625" customWidth="1"/>
+    <col min="15" max="15" width="20.08984375" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -588,101 +598,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F017C7-5CE9-48D2-A0C7-F2879FBF34E6}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="37.54296875" customWidth="1"/>
-    <col min="6" max="8" width="15.08984375" customWidth="1"/>
-    <col min="10" max="11" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" customWidth="1"/>
+    <col min="6" max="6" width="37.54296875" customWidth="1"/>
+    <col min="7" max="9" width="15.08984375" customWidth="1"/>
+    <col min="11" max="12" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -690,25 +704,25 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -716,39 +730,42 @@
       <c r="H4">
         <v>3</v>
       </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{2830B3EC-700A-4313-9053-0E5987CC926D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F5" xr:uid="{2830B3EC-700A-4313-9053-0E5987CC926D}">
       <formula1>"Time,Currency"</formula1>
     </dataValidation>
   </dataValidations>
